--- a/네이버뉴스/101_test.xlsx
+++ b/네이버뉴스/101_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>기사 제목</t>
+          <t>제목</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>기사 입력시각</t>
+          <t>날짜</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>KT스튜디오지니-스토리위즈, ‘제1회 영상화를 위한 웹소설·웹툰 공모전 ’수상작 선정</t>
+          <t>서강대-지디넷코리아, 메타버스 인재 양성 '맞손'</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -476,12 +476,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>성남지역 SK 5개 관계사, 저소득층 가정에 '행복김치' 전달</t>
+          <t>'수은 직원' 감사청구한 무보 노조 "해외수주 121억불 무산, 허위주장"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -494,12 +494,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>에쓰오일, 저소득가정 학생·지역사회 후원에 1억원 기부</t>
+          <t>유효기간 지난 방역패스 '경고음'…내달 3일 시행</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:49</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -512,12 +512,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NH투자증권, 고용부 산하 5개 기관 퇴직연금 통합운영 협약 체결</t>
+          <t>건강간식 브랜드 자연공유, 신규 고객 대상 프로모션 진행</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:36</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -530,12 +530,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>카카오엔터, 새 글로벌 비전 공개… “글로벌 거래액, 3년 내 3배로 키울 것”</t>
+          <t>영업시간 제한 업종 70만개사 방역지원금 1차 지급</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -548,12 +548,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BBQ, 기프티콘 사용 고객 앱 서비스 강화</t>
+          <t>LG생활건강, 편의점 페리오·샤프란 가격 10% 이상 올린다</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:35</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -566,12 +566,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>中헝다그룹 디폴트에도 “질서 있는 구조조정 기대”</t>
+          <t>롯데免, 김포공항 면세점 운영권 확보…관세청 특허심사 통과</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:34</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -584,12 +584,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>다원시스 자회사, 붕소중성자포획 치료 식약처 IND 신청</t>
+          <t>"제2금융권 기업대출 급증 우려...가계부채는 통제 가능"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:48</t>
+          <t>2021.12.23 18:33</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -602,12 +602,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[특징주] 제주반도체, D램 가격 전망 상향 조정… 6%↑</t>
+          <t>Big carmakers want to sell you a used car</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:33</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -620,12 +620,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LGDP-연대, '디스플레이융합공학과' 설립…채용 연계</t>
+          <t>정부, 317만배럴 비축유 푼다</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:33</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>골든블루, 세계 1위 중국 하이난 면세점 뜷었다</t>
+          <t>코스피, 사흘째 상승 마감…3000선 회복은 실패</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:32</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -656,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'웹 3.0'을 대하는 잭 도시와 마크 저커버그의 차이 [한경 코알라]</t>
+          <t>‘유류세 약발’ 다할 때쯤 비축유 317만배럴 방출…국내 1.2일 사용량</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:32</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -674,12 +674,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[머니팁]하이투자증권, 총 15억원 규모 ELS 1종 공모</t>
+          <t>자영업자 카드수수료 최대 0.3%포인트 인하…4700억원 부담 줄 듯</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:47</t>
+          <t>2021.12.23 18:32</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -692,12 +692,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>홍남기 "포스트 코로나 시대 혁신, 미래 핵심 산업 집중 육성"</t>
+          <t>금호석화, 임직원 '끝전성금' 9곳 기부</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:32</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -710,12 +710,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[신상품라운지]오뚜기, '초간편 감자수제비 키트' 출시</t>
+          <t>대한항공, ‘송현동 부지 매각’ 공시</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -728,12 +728,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>"집에서 파티해요" 크리스마스 케이크 불티나게 팔린다</t>
+          <t>수은 vs 무보, 대외보증 주도권 갈등 격화…무보 노조 “감사해야”</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -746,12 +746,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[신상품라운지]샘표, 조선 영조 임금의 별미장 '샘표 고초장' 출시</t>
+          <t>[인사] 팬오션</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -764,12 +764,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>티웨이항공, A330 첫 운항편 '김포~제주'..'비즈니스 좌석 운영'</t>
+          <t>LG화학·LG엔솔 노사, 7천만원 기부</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -782,12 +782,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>'제2의 캐스퍼' 준비하는 정부,  ‘2021 상생형 지역일자리 포럼’ 개최</t>
+          <t>볼보코리아, 한정판 ‘S60 R디자인’ 15분 만에 완판… 다음 달 출고 개시</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:31</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -800,18 +800,378 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>숭실사이버대학교 방송문예창작학과 김민혜 교수, 웹툰/웹소설 제작 위한 스토리텔링 강의 콘텐츠 제공</t>
+          <t>현대위아, 급여 1% 모아 車 6대 기부</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.08. 오전 9:46</t>
+          <t>2021.12.23 18:30</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>홍남기 "1주택 보유세 경감 방안 내년 3월 발표"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:42</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Starting to stabilize?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:41</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>포항시, 코로나 차단 위해 해맞이명소 호미곶 차량 통제</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"2주씩 거리두기 연장 뻔해"...자영업자들 뿔났다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:40</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>‘e편한세상 검단 어반센트로’ 17일(금) 사이버 주택전시관 오픈</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:38</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>코인빗, 사업자 신고 철회...서비스 종료 수순</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:37</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>서강대-지디넷코리아, 메타버스 인재 양성 '맞손'</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:36</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>'수은 직원' 감사청구한 무보 노조 "해외수주 121억불 무산, 허위주장"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:36</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>유효기간 지난 방역패스 '경고음'…내달 3일 시행</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:36</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>건강간식 브랜드 자연공유, 신규 고객 대상 프로모션 진행</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:36</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>영업시간 제한 업종 70만개사 방역지원금 1차 지급</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:35</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>LG생활건강, 편의점 페리오·샤프란 가격 10% 이상 올린다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:35</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>롯데免, 김포공항 면세점 운영권 확보…관세청 특허심사 통과</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:34</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"제2금융권 기업대출 급증 우려...가계부채는 통제 가능"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:33</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Big carmakers want to sell you a used car</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:33</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>정부, 317만배럴 비축유 푼다</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:33</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>코스피, 사흘째 상승 마감…3000선 회복은 실패</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:32</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>‘유류세 약발’ 다할 때쯤 비축유 317만배럴 방출…국내 1.2일 사용량</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:32</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>자영업자 카드수수료 최대 0.3%포인트 인하…4700억원 부담 줄 듯</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:32</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>금호석화, 임직원 '끝전성금' 9곳 기부</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2021.12.23 18:32</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
